--- a/corporation_excel/me/2024.xlsx
+++ b/corporation_excel/me/2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,15 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -49,13 +56,19 @@
   <si>
     <t>r</t>
   </si>
+  <si>
+    <t>check_샤ㅡㄷ</t>
+  </si>
+  <si>
+    <t>check_time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
@@ -178,12 +191,6 @@
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
       <scheme val="minor"/>
       <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <i/>
@@ -424,7 +431,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -433,7 +439,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -442,7 +447,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -451,7 +455,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -466,7 +469,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -481,7 +483,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -496,7 +497,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -505,7 +505,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -516,7 +515,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -595,10 +593,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -607,10 +605,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -619,10 +617,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -631,10 +629,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -643,10 +641,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -655,16 +653,16 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,15 +1011,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1033,6 +1031,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1044,15 +1045,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1065,160 +1066,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1229,17 +1078,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1251,6 +1100,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1260,17 +1112,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1282,6 +1134,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1291,17 +1146,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1313,6 +1168,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1322,17 +1180,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1344,6 +1202,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1353,17 +1214,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1375,6 +1236,180 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/corporation_excel/me/2024.xlsx
+++ b/corporation_excel/me/2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,15 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -62,13 +69,34 @@
   <si>
     <t>check_time</t>
   </si>
+  <si>
+    <t>kim</t>
+  </si>
+  <si>
+    <t>temp123</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>"07:10"</t>
+  </si>
+  <si>
+    <t>02:23</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
@@ -198,6 +226,16 @@
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
       <scheme val="minor"/>
       <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <color theme="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -666,11 +704,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
@@ -1011,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -1034,6 +1077,23 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.500000">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1251,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
@@ -1276,10 +1336,45 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="16.500000">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1">
+      <c r="A3" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/corporation_excel/me/2024.xlsx
+++ b/corporation_excel/me/2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
@@ -230,11 +230,6 @@
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
       <color theme="1"/>
     </font>
   </fonts>
@@ -704,16 +699,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
@@ -1311,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
@@ -1353,20 +1345,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1">
-      <c r="A3" s="6">
+    <row r="3" spans="1:5" s="0" customFormat="1" ht="16.500000">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.500000">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
